--- a/BDD/Remplir les tables/Departement Region avec Formules.xlsx
+++ b/BDD/Remplir les tables/Departement Region avec Formules.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-15\Reference\02 - Base de données\02 - Création d'une base de données\Remplir les tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-15-11\Kesary_DWWM\BDD\Remplir les tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Region" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
   <si>
     <t>Ain</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Saint-Barthélemy</t>
+  </si>
+  <si>
+    <t>idDepartement</t>
   </si>
 </sst>
 </file>
@@ -1227,2343 +1230,2674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="105" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2">
-        <f>VLOOKUP(C2,$H$2:$J$15,3,0)</f>
+      <c r="E2">
+        <f>VLOOKUP(D2,$I$2:$K$15,3,0)</f>
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f>"INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (""" &amp; A2 &amp; """,""" &amp; B2 &amp; """," &amp; D2 &amp; ");"</f>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("1","Ain",1);</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="str">
+        <f>"INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("&amp;A2&amp;",""" &amp; B2 &amp; """,""" &amp; C2 &amp; """," &amp; E2 &amp; ");"</f>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (1,"1","Ain",1);</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>95</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2" t="str">
-        <f>"INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (""" &amp; H2&amp;"""," &amp; G2 &amp; "," &amp; I2 &amp; ");"</f>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Auvergne-Rhône-Alpes",1,12);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="str">
+        <f>"INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("&amp;K2&amp;",""" &amp; I2&amp;"""," &amp; H2 &amp; "," &amp; J2 &amp; ");"</f>
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (1,"Auvergne-Rhône-Alpes",1,12);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">VLOOKUP(C3,$H$2:$J$15,3,0)</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">VLOOKUP(D3,$I$2:$K$15,3,0)</f>
         <v>7</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="1">"INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (""" &amp; A3 &amp; """,""" &amp; B3 &amp; """," &amp; D3 &amp; ");"</f>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("2","Aisne",7);</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">"INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("&amp;A3&amp;",""" &amp; B3 &amp; """,""" &amp; C3 &amp; """," &amp; E3 &amp; ");"</f>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (2,"2","Aisne",7);</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>96</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K15" si="2">"INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (""" &amp; H3&amp;"""," &amp; G3 &amp; "," &amp; I3 &amp; ");"</f>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Bourgogne-Franche-Comté",2,8);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L15" si="2">"INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("&amp;K3&amp;",""" &amp; I3&amp;"""," &amp; H3 &amp; "," &amp; J3 &amp; ");"</f>
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (2,"Bourgogne-Franche-Comté",2,8);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("3","Allier",1);</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (3,"3","Allier",1);</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>84</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Bretagne",3,4);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (3,"Bretagne",3,4);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("4","Alpes-de-Haute-Provence",13);</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (4,"4","Alpes-de-Haute-Provence",13);</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>85</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Centre-Val de Loire",4,6);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (4,"Centre-Val de Loire",4,6);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>97</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("5","Hautes-Alpes",13);</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (5,"5","Hautes-Alpes",13);</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Corse",5,2);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (5,"Corse",5,2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("6","Alpes-Maritimes",13);</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (6,"6","Alpes-Maritimes",13);</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>87</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Grand-Est",6,10);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (6,"Grand-Est",6,10);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("7","Ardèche",1);</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (7,"7","Ardèche",1);</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Hauts-de-France",7,5);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (7,"Hauts-de-France",7,5);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("8","Ardennes",6);</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (8,"8","Ardennes",6);</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>89</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Ile-de-France",8,8);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (8,"Ile-de-France",8,8);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("9","Ariège",11);</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (9,"9","Ariège",11);</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Normandie",9,5);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (9,"Normandie",9,5);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("10","Aube",6);</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (10,"10","Aube",6);</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>91</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Nouvelle-Aquitaine",10,12);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (10,"Nouvelle-Aquitaine",10,12);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>92</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("11","Aude",11);</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (11,"11","Aude",11);</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>92</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>13</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Occitanie",11,13);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (11,"Occitanie",11,13);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>92</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("12","Aveyron",11);</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (12,"12","Aveyron",11);</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>93</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Pays de la Loire",12,5);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (12,"Pays de la Loire",12,5);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>97</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("13","Bouches-du-Rhône",13);</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (13,"13","Bouches-du-Rhône",13);</v>
+      </c>
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>97</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("Provence-Alpes-Côte d'Azur",13,6);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (13,"Provence-Alpes-Côte d'Azur",13,6);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("14","Calvados",9);</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (14,"14","Calvados",9);</v>
+      </c>
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>94</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>12</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `regions`( `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES ("DOM-TOM",14,12);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `regions`(`idRegion`, `libelleRegion`, `numeroRegion`, `nombreDepartement`) VALUES (14,"DOM-TOM",14,12);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>95</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("15","Cantal",1);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (15,"15","Cantal",1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("16","Charente",10);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (16,"16","Charente",10);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("17","Charente-Maritime",10);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (17,"17","Charente-Maritime",10);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("18","Cher",4);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (18,"18","Cher",4);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("19","Correze",10);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (19,"19","Correze",10);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("21","Côte-d'Or",2);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (20,"21","Côte-d'Or",2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("22","Côtes-d'Armor",3);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (21,"22","Côtes-d'Armor",3);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("23","Creuse",10);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (22,"23","Creuse",10);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("24","Dordogne",10);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (23,"24","Dordogne",10);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>96</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("25","Doubs",2);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (24,"25","Doubs",2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("26","Drôme",1);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (25,"26","Drôme",1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("27","Eure",9);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (26,"27","Eure",9);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>85</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("28","Eure-et-Loir",4);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (27,"28","Eure-et-Loir",4);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>84</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("29","Finistère",3);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (28,"29","Finistère",3);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("2A","Corse-du-Sud",5);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (29,"2A","Corse-du-Sud",5);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("2B","Haute-Corse ",5);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (30,"2B","Haute-Corse ",5);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("30","Gard",11);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (31,"30","Gard",11);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("31","Haute-Garonne",11);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (32,"31","Haute-Garonne",11);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>92</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("32","Gers",11);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (33,"32","Gers",11);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("33","Gironde",10);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (34,"33","Gironde",10);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("34","Hérault",11);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (35,"34","Hérault",11);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>84</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("35","Ille-et-Vilaine",3);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (36,"35","Ille-et-Vilaine",3);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>85</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("36","Indre",4);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (37,"36","Indre",4);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>85</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("37","Indre-et-Loire",4);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (38,"37","Indre-et-Loire",4);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>95</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("38","Isère",1);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (39,"38","Isère",1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>96</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("39","Jura",2);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (40,"39","Jura",2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>91</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("40","Landes",10);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (41,"40","Landes",10);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("41","Loir-et-Cher",4);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (42,"41","Loir-et-Cher",4);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("42","Loire",1);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (43,"42","Loire",1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>35</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>95</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("43","Haute-Loire",1);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (44,"43","Haute-Loire",1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>36</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("44","Loire-Atlantique",12);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (45,"44","Loire-Atlantique",12);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>37</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>85</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("45","Loiret",4);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (46,"45","Loiret",4);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>38</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>92</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("46","Lot",11);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (47,"46","Lot",11);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>39</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>91</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("47","Lot-et-Garonne",10);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (48,"47","Lot-et-Garonne",10);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>108</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>92</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("48","Lozère",11);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (49,"48","Lozère",11);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>40</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>93</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("49","Maine-et-Loire",12);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (50,"49","Maine-et-Loire",12);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>41</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>90</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("50","Manche",9);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (51,"50","Manche",9);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>87</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("51","Marne",6);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (52,"51","Marne",6);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>87</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("52","Haute-Marne",6);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (53,"52","Haute-Marne",6);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>93</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("53","Mayenne",12);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (54,"53","Mayenne",12);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>87</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("54","Meurthe-et-Moselle",6);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (55,"54","Meurthe-et-Moselle",6);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>87</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("55","Meuse",6);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (56,"55","Meuse",6);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>47</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>84</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("56","Morbihan",3);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (57,"56","Morbihan",3);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>48</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>87</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("57","Moselle",6);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (58,"57","Moselle",6);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>96</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("58","Nièvre",2);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (59,"58","Nièvre",2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>49</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>88</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("59","Nord",7);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (60,"59","Nord",7);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>50</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>88</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("60","Oise",7);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (61,"60","Oise",7);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>51</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>90</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("61","Orne",9);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (62,"61","Orne",9);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>52</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>88</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("62","Pas-de-Calais",7);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (63,"62","Pas-de-Calais",7);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>111</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>95</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("63","Puy-de-Dôme",1);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (64,"63","Puy-de-Dôme",1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>115</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>91</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("64","Pyrénées-Atlantiques",10);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (65,"64","Pyrénées-Atlantiques",10);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>116</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>92</v>
       </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D109" si="3">VLOOKUP(C67,$H$2:$J$15,3,0)</f>
+      <c r="E67">
+        <f t="shared" ref="E67:E109" si="3">VLOOKUP(D67,$I$2:$K$15,3,0)</f>
         <v>11</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E110" si="4">"INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (""" &amp; A67 &amp; """,""" &amp; B67 &amp; """," &amp; D67 &amp; ");"</f>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("65","Hautes-Pyrénées",11);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F110" si="4">"INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("&amp;A67&amp;",""" &amp; B67 &amp; """,""" &amp; C67 &amp; """," &amp; E67 &amp; ");"</f>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (66,"65","Hautes-Pyrénées",11);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>117</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>92</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("66","Pyrénées-Orientales",11);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (67,"66","Pyrénées-Orientales",11);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>53</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>87</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("67","Bas-Rhin",6);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (68,"67","Bas-Rhin",6);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>54</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>87</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("68","Haut-Rhin",6);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (69,"68","Haut-Rhin",6);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>112</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>95</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("69","Rhône",1);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (70,"69","Rhône",1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>113</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>96</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("70","Haute-Saône",2);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (71,"70","Haute-Saône",2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>114</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>96</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("71","Saône-et-Loire",2);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (72,"71","Saône-et-Loire",2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>55</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>93</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("72","Sarthe",12);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (73,"72","Sarthe",12);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>56</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>95</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("73","Savoie",1);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (74,"73","Savoie",1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>57</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>95</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("74","Haute-Savoie",1);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (75,"74","Haute-Savoie",1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>58</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>89</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("75","Paris",8);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (76,"75","Paris",8);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>59</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>90</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("76","Seine-Maritime",9);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (77,"76","Seine-Maritime",9);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>60</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>89</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("77","Seine-et-Marne",8);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (78,"77","Seine-et-Marne",8);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>61</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>89</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("78","Yvelines",8);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (79,"78","Yvelines",8);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>110</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>91</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("79","Deux-Sèvres",10);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (80,"79","Deux-Sèvres",10);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>62</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>88</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("80","Somme",7);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (81,"80","Somme",7);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>63</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>92</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("81","Tarn",11);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (82,"81","Tarn",11);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>64</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>92</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("82","Tarn-et-Garonne",11);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (83,"82","Tarn-et-Garonne",11);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>65</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>97</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("83","Var",13);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (84,"83","Var",13);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>66</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>97</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("84","Vaucluse",13);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (85,"84","Vaucluse",13);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>118</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>93</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("85","Vendée",12);</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (86,"85","Vendée",12);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>67</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>91</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("86","Vienne",10);</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (87,"86","Vienne",10);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>68</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>91</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("87","Haute-Vienne",10);</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (88,"87","Haute-Vienne",10);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>69</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>87</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("88","Vosges",6);</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (89,"88","Vosges",6);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>70</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>96</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("89","Yonne",2);</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (90,"89","Yonne",2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>71</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>96</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("90","Territoire de Belfort",2);</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (91,"90","Territoire de Belfort",2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>72</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>89</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("91","Essonne",8);</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (92,"91","Essonne",8);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>73</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>89</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("92","Hauts-de-Seine",8);</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (93,"92","Hauts-de-Seine",8);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>74</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>89</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("93","Seine-Saint-Denis",8);</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (94,"93","Seine-Saint-Denis",8);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>75</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>89</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("94","Val-de-Marne",8);</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (95,"94","Val-de-Marne",8);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>76</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>89</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("95","Val-d'Oise",8);</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (96,"95","Val-d'Oise",8);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
         <v>971</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>77</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>94</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("971","Guadeloupe",14);</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (97,"971","Guadeloupe",14);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <v>972</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>78</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>94</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("972","Martinique",14);</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (98,"972","Martinique",14);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
         <v>973</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>79</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>94</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("973","Guyane",14);</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (99,"973","Guyane",14);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <v>974</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>119</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>94</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("974","La Réunion",14);</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (100,"974","La Réunion",14);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <v>975</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>80</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>94</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("975","Saint-Pierre-et-Miquelon",14);</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (101,"975","Saint-Pierre-et-Miquelon",14);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
         <v>977</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>133</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>94</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("977","Saint-Barthélemy",14);</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (102,"977","Saint-Barthélemy",14);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
         <v>978</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>132</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>94</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("978","Saint-Martin",14);</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (103,"978","Saint-Martin",14);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
         <v>984</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>121</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>94</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("984","Terres australes et antarctiques françaises",14);</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (104,"984","Terres australes et antarctiques françaises",14);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
         <v>986</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>82</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>94</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("986","Wallis-et-Futuna",14);</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (105,"986","Wallis-et-Futuna",14);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
         <v>987</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>122</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>94</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("987","Polynésie française",14);</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (106,"987","Polynésie française",14);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
         <v>988</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>120</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>94</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("988","Nouvelle-Calédonie",14);</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (107,"988","Nouvelle-Calédonie",14);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
         <v>989</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>83</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>94</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES ("989","Clipperton",14);</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `departements`(`idDepartement`, `numeroDepartement`, `libelleDepartement`, `idRegion`) VALUES (108,"989","Clipperton",14);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>976</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>81</v>
       </c>
-      <c r="D110" t="e">
-        <f>VLOOKUP(C110,$H$2:$J$15,3,0)</f>
+      <c r="E110" t="e">
+        <f>VLOOKUP(D110,$I$2:$K$15,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E110" t="str">
-        <f>"INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`) VALUES (""" &amp; A110 &amp; """,""" &amp; B110 &amp; """"  &amp; ");"</f>
-        <v>INSERT INTO `departements`( `numeroDepartement`, `libelleDepartement`) VALUES ("976","Mayotte");</v>
+      <c r="F110" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
